--- a/data/processed/mobile_completion_time_higher.xlsx
+++ b/data/processed/mobile_completion_time_higher.xlsx
@@ -474,8 +474,10 @@
       <c r="A2" t="n">
         <v>2015</v>
       </c>
-      <c r="B2" t="n">
-        <v>1800</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -497,16 +499,20 @@
           <t>[True, False]</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2015</v>
       </c>
-      <c r="B3" t="n">
-        <v>419</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -523,19 +529,25 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2015</v>
       </c>
-      <c r="B4" t="n">
-        <v>1608</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -557,16 +569,20 @@
           <t>[True, False]</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2012</v>
       </c>
-      <c r="B5" t="n">
-        <v>2029</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -583,17 +599,23 @@
           <t>Dutch-speaking Adults</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>211</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -611,16 +633,20 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2015</v>
       </c>
-      <c r="B7" t="n">
-        <v>699</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -637,19 +663,25 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2011</v>
       </c>
-      <c r="B8" t="n">
-        <v>513</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -667,14 +699,18 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>1</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>15292</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15292</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -692,16 +728,20 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>1</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2012</v>
       </c>
-      <c r="B10" t="n">
-        <v>3396</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -710,19 +750,25 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2013</v>
       </c>
-      <c r="B11" t="n">
-        <v>1390</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -739,19 +785,25 @@
           <t>Dutch Adults</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2014</v>
       </c>
-      <c r="B12" t="n">
-        <v>2000</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -768,17 +820,23 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>24.273</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24.273</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -796,16 +854,20 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2013</v>
       </c>
-      <c r="B14" t="n">
-        <v>836</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -822,19 +884,25 @@
           <t>Dutch Adults</t>
         </is>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2016</v>
       </c>
-      <c r="B15" t="n">
-        <v>1678</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1678</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -851,19 +919,25 @@
           <t xml:space="preserve">Mobile Internet User </t>
         </is>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2012</v>
       </c>
-      <c r="B16" t="n">
-        <v>58768</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>58768</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -881,8 +955,10 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="b">
-        <v>1</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -920,8 +996,10 @@
       <c r="A18" t="n">
         <v>2018</v>
       </c>
-      <c r="B18" t="n">
-        <v>3517</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3517</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -938,19 +1016,25 @@
           <t>German Adults</t>
         </is>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2015</v>
       </c>
-      <c r="B19" t="n">
-        <v>1800</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -972,16 +1056,20 @@
           <t>[True, False]</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2015</v>
       </c>
-      <c r="B20" t="n">
-        <v>5535</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5535</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -998,19 +1086,25 @@
           <t>Norway Adults</t>
         </is>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2016</v>
       </c>
-      <c r="B21" t="n">
-        <v>1476</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1027,17 +1121,23 @@
           <t>Adults with Access to Mobile and PC</t>
         </is>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>47</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1054,17 +1154,23 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>559</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1078,16 +1184,20 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="b">
-        <v>0</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2014</v>
       </c>
-      <c r="B24" t="n">
-        <v>2913</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2913</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1104,19 +1214,25 @@
           <t>German Adults</t>
         </is>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2013</v>
       </c>
-      <c r="B25" t="n">
-        <v>6226</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6226</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1133,19 +1249,25 @@
           <t>Dutch Adults</t>
         </is>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2015</v>
       </c>
-      <c r="B26" t="n">
-        <v>512</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1162,19 +1284,25 @@
           <t>Adult Household Population</t>
         </is>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2014</v>
       </c>
-      <c r="B27" t="n">
-        <v>1721</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1192,16 +1320,20 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="b">
-        <v>1</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2012</v>
       </c>
-      <c r="B28" t="n">
-        <v>947</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1218,17 +1350,23 @@
           <t>Dutch Internet User (18+)</t>
         </is>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>38841</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>38841</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1245,11 +1383,15 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
   </sheetData>
